--- a/Transformation Rules.xlsx
+++ b/Transformation Rules.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmahm\Dropbox\RTU\T04\Thesis\Transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727EE97F-B2BB-4F40-8955-F160E0E542E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B44DB-7639-484E-983E-4DEE7F373FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Objects-Mapping" sheetId="3" r:id="rId1"/>
-    <sheet name="Mapping-Code" sheetId="2" r:id="rId2"/>
-    <sheet name="T-Rules" sheetId="1" r:id="rId3"/>
+    <sheet name="Drawio-Objects" sheetId="4" r:id="rId1"/>
+    <sheet name="Objects-Mapping" sheetId="3" r:id="rId2"/>
+    <sheet name="Mapping-Code" sheetId="2" r:id="rId3"/>
+    <sheet name="T-Rules" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="249">
   <si>
     <t>mxgraph.mockup.buttons.button</t>
   </si>
@@ -717,6 +718,297 @@
     if (err) throw err;
     console.log(`Checkbox style added`);
 });</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Radio Button</t>
+  </si>
+  <si>
+    <t>Combo Box</t>
+  </si>
+  <si>
+    <t>Password Box</t>
+  </si>
+  <si>
+    <t>mxgraph.mockup.forms.pwField</t>
+  </si>
+  <si>
+    <t>Check Box</t>
+  </si>
+  <si>
+    <t>Helvetica</t>
+  </si>
+  <si>
+    <t>Search Box</t>
+  </si>
+  <si>
+    <t>mxgraph.mockup.forms.searchBox</t>
+  </si>
+  <si>
+    <t>strokeColor2</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>recursiveResize</t>
+  </si>
+  <si>
+    <t>Windows Frame</t>
+  </si>
+  <si>
+    <t>mxgraph.mockup.containers.window</t>
+  </si>
+  <si>
+    <t>strokeColor3</t>
+  </si>
+  <si>
+    <t>#c4c4c4</t>
+  </si>
+  <si>
+    <t>labelBackgroundColor</t>
+  </si>
+  <si>
+    <t>Directional Connector</t>
+  </si>
+  <si>
+    <t>endArrow</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>rounded</t>
+  </si>
+  <si>
+    <t>exitX</t>
+  </si>
+  <si>
+    <t>exitY</t>
+  </si>
+  <si>
+    <t>exitDx</t>
+  </si>
+  <si>
+    <t>exitDy</t>
+  </si>
+  <si>
+    <t>exitPerimeter</t>
+  </si>
+  <si>
+    <t>entryX</t>
+  </si>
+  <si>
+    <t>entryY</t>
+  </si>
+  <si>
+    <t>entryDx</t>
+  </si>
+  <si>
+    <t>entryDy</t>
+  </si>
+  <si>
+    <t>entryPerimeter</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>partialRectangle</t>
+  </si>
+  <si>
+    <t>connectable</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>tableRow</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>startSize</t>
+  </si>
+  <si>
+    <t>swimlaneHead</t>
+  </si>
+  <si>
+    <t>swimlaneBody</t>
+  </si>
+  <si>
+    <t>collapsible</t>
+  </si>
+  <si>
+    <t>dropTarget</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>[[0,0.5],[1,0.5]]</t>
+  </si>
+  <si>
+    <t>portConstraint</t>
+  </si>
+  <si>
+    <t>eastwest</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>gfOZZN30UZAbTlPEWikF-2</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>gfOZZN30UZAbTlPEWikF-1</t>
+  </si>
+  <si>
+    <t>mxfile</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>app.diagrams.net</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>2023-02-27T07:25:18.783Z</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36</t>
+  </si>
+  <si>
+    <t>etag</t>
+  </si>
+  <si>
+    <t>_RBXi7xz4otYBU6eaSvD</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>20.8.23</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Page-1</t>
+  </si>
+  <si>
+    <t>HsX2YadkRmnXCzilZfh6</t>
+  </si>
+  <si>
+    <t>mxGraphModel</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>gridSize</t>
+  </si>
+  <si>
+    <t>guides</t>
+  </si>
+  <si>
+    <t>tooltips</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>arrows</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>pageScale</t>
+  </si>
+  <si>
+    <t>pageWidth</t>
+  </si>
+  <si>
+    <t>pageHeight</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>mxCell</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>strokeWidth=1;shadow=0;dashed=0;align=center;html=1;shape=mxgraph.mockup.buttons.button;strokeColor=#666666;fontColor=#ffffff;mainText=;buttonStyle=round;fontSize=17;fontStyle=1;fillColor=#008cff;whiteSpace=wrap;</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>mxGeometry</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>mxPoint</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Array</t>
   </si>
 </sst>
 </file>
@@ -773,7 +1065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1300,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,7 +1494,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1576,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,35 +1597,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1170,6 +1636,661 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>543885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178539</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1629410" cy="676142"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF253B05-0581-4ABE-A6EC-1D93A6780696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5384490" y="1393929"/>
+          <a:ext cx="1629410" cy="676142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529118</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54344</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1629410" cy="485834"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Text&#10;&#10;Description automatically generated with medium confidence">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23276B55-7EEE-4558-9766-606255AE72C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5365913" y="4001504"/>
+          <a:ext cx="1629410" cy="485834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1335405" cy="381251"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Logo&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C2F0D9-5148-4B09-8EB5-BB021B9F939F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5507990" y="6200775"/>
+          <a:ext cx="1335405" cy="381251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1181735" cy="381251"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Logo&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0A5455-FB5B-4F1A-8005-2B3A49FA08A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5541010" y="13226415"/>
+          <a:ext cx="1181735" cy="381251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>49694</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2639237" cy="1119459"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Shape&#10;&#10;Description automatically generated with medium confidence">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0317F73-796A-4F45-AF0E-9BA6EBF65184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="15264929"/>
+          <a:ext cx="2639237" cy="1119459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1629410" cy="485834"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Text&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C69E59-C1C4-434F-883E-11B8A048B4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5372100" y="17342485"/>
+          <a:ext cx="1629410" cy="485834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1629410" cy="485391"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Text, icon&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75FD6D2-77C1-4893-A1B7-E3CBBFD7A3D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="8343900"/>
+          <a:ext cx="1629410" cy="485391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1629410" cy="485391"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Text&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B62C448-975C-4B48-9FA5-3B994049E809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="10721340"/>
+          <a:ext cx="1629410" cy="485391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1629410" cy="1347396"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD6335A-85DC-4396-B14C-1D5CE7EF7FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5349240" y="19107150"/>
+          <a:ext cx="1629410" cy="1347396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2606286" cy="1837675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E443A3DE-3EAF-4311-8D20-04DD90DBE8B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4855210" y="21069300"/>
+          <a:ext cx="2606286" cy="1837675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2277110" cy="353946"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Shape&#10;&#10;Description automatically generated with medium confidence">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C403CA-C919-4979-97A1-0357BA3C75F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5007610" y="24420830"/>
+          <a:ext cx="2277110" cy="353946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="975671"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A11179-FF10-4977-885A-5D0749BC2C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5198110" y="27581860"/>
+          <a:ext cx="1924050" cy="975671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14768</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>177210</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2580005" cy="1724660"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392C168E-76ED-4D28-B145-58DAC5B6A56F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4857278" y="30453375"/>
+          <a:ext cx="2580005" cy="1724660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2096,6 +3217,2249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58BD8E2-F007-4DDE-812D-F4DCBFC4F4B8}">
+  <dimension ref="A1:D217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="48"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="48"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="48"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16">
+        <v>17</v>
+      </c>
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37"/>
+      <c r="B16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="43"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="17">
+        <v>17</v>
+      </c>
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="17">
+        <v>4</v>
+      </c>
+      <c r="D26" s="43"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="17">
+        <v>-3</v>
+      </c>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="43"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37"/>
+      <c r="B29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="43"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="43"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
+      <c r="B36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="17">
+        <v>4</v>
+      </c>
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
+      <c r="B37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="17">
+        <v>17</v>
+      </c>
+      <c r="D37" s="43"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="36"/>
+      <c r="B38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="36"/>
+      <c r="B39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="43"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="37"/>
+      <c r="B40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="54"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="47"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
+      <c r="B42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0</v>
+      </c>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
+      <c r="B43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0</v>
+      </c>
+      <c r="D43" s="48"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
+      <c r="B44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="48"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
+      <c r="B45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="48"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
+      <c r="B46" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="48"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
+      <c r="B47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="48"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="48"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="48"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
+      <c r="B51" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="48"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
+      <c r="B52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="48"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
+      <c r="B53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="17">
+        <v>17</v>
+      </c>
+      <c r="D53" s="48"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="37"/>
+      <c r="B54" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="22">
+        <v>3</v>
+      </c>
+      <c r="D54" s="49"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="14">
+        <v>1</v>
+      </c>
+      <c r="D55" s="42"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0</v>
+      </c>
+      <c r="D56" s="43"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+      <c r="D57" s="43"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
+      <c r="B58" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
+      <c r="B59" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="36"/>
+      <c r="B60" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="43"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="43"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="43"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="36"/>
+      <c r="B63" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="43"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="43"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="17">
+        <v>17</v>
+      </c>
+      <c r="D65" s="43"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="37"/>
+      <c r="B66" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="22">
+        <v>3</v>
+      </c>
+      <c r="D66" s="54"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1</v>
+      </c>
+      <c r="D67" s="42"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="36"/>
+      <c r="B68" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0</v>
+      </c>
+      <c r="D68" s="43"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="36"/>
+      <c r="B69" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0</v>
+      </c>
+      <c r="D69" s="43"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="36"/>
+      <c r="B70" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="36"/>
+      <c r="B71" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="17">
+        <v>1</v>
+      </c>
+      <c r="D71" s="43"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="36"/>
+      <c r="B72" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="43"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
+      <c r="B73" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0</v>
+      </c>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
+      <c r="B74" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="43"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
+      <c r="B75" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="43"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="36"/>
+      <c r="B76" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="43"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="36"/>
+      <c r="B77" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="43"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
+      <c r="B78" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="17">
+        <v>4</v>
+      </c>
+      <c r="D78" s="43"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="36"/>
+      <c r="B79" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="17">
+        <v>17</v>
+      </c>
+      <c r="D79" s="43"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="36"/>
+      <c r="B80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="43"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="37"/>
+      <c r="B81" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="54"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="47"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="36"/>
+      <c r="B83" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="17">
+        <v>-5</v>
+      </c>
+      <c r="D83" s="48"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="36"/>
+      <c r="B84" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="36"/>
+      <c r="B85" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="17">
+        <v>1</v>
+      </c>
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="36"/>
+      <c r="B86" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="48"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="36"/>
+      <c r="B87" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="17">
+        <v>12</v>
+      </c>
+      <c r="D87" s="48"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="36"/>
+      <c r="B88" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="48"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="36"/>
+      <c r="B89" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="48"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="37"/>
+      <c r="B90" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="49"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="14">
+        <v>1</v>
+      </c>
+      <c r="D91" s="45"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="51"/>
+      <c r="B92" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="17">
+        <v>0</v>
+      </c>
+      <c r="D92" s="46"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="51"/>
+      <c r="B93" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="46"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="51"/>
+      <c r="B94" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="46"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="51"/>
+      <c r="B95" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="17">
+        <v>1</v>
+      </c>
+      <c r="D95" s="46"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="51"/>
+      <c r="B96" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="46"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="51"/>
+      <c r="B97" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="46"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="51"/>
+      <c r="B98" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="17"/>
+      <c r="D98" s="46"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="51"/>
+      <c r="B99" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="46"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="51"/>
+      <c r="B100" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="46"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="51"/>
+      <c r="B101" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="17">
+        <v>17</v>
+      </c>
+      <c r="D101" s="46"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="51"/>
+      <c r="B102" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" s="46"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="52"/>
+      <c r="B103" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="22">
+        <v>3</v>
+      </c>
+      <c r="D103" s="53"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="14">
+        <v>1</v>
+      </c>
+      <c r="D104" s="47"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="36"/>
+      <c r="B105" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="17">
+        <v>0</v>
+      </c>
+      <c r="D105" s="48"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="36"/>
+      <c r="B106" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0</v>
+      </c>
+      <c r="D106" s="48"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="36"/>
+      <c r="B107" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="48"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="36"/>
+      <c r="B108" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1</v>
+      </c>
+      <c r="D108" s="48"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="36"/>
+      <c r="B109" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="48"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="36"/>
+      <c r="B110" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="17">
+        <v>0</v>
+      </c>
+      <c r="D110" s="48"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="36"/>
+      <c r="B111" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="48"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="36"/>
+      <c r="B112" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="48"/>
+    </row>
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="37"/>
+      <c r="B113" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="22">
+        <v>0</v>
+      </c>
+      <c r="D113" s="49"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="13">
+        <v>1</v>
+      </c>
+      <c r="D114" s="38"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="36"/>
+      <c r="B115" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="16">
+        <v>0</v>
+      </c>
+      <c r="D115" s="39"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="36"/>
+      <c r="B116" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="16">
+        <v>0</v>
+      </c>
+      <c r="D116" s="39"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="36"/>
+      <c r="B117" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="39"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="36"/>
+      <c r="B118" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="16">
+        <v>1</v>
+      </c>
+      <c r="D118" s="39"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="36"/>
+      <c r="B119" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="39"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="36"/>
+      <c r="B120" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="39"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="36"/>
+      <c r="B121" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="39"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="36"/>
+      <c r="B122" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" s="16">
+        <v>8</v>
+      </c>
+      <c r="D122" s="39"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="36"/>
+      <c r="B123" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" s="39"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="36"/>
+      <c r="B124" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="39"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="36"/>
+      <c r="B125" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="39"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="36"/>
+      <c r="B126" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="39"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="36"/>
+      <c r="B127" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="16">
+        <v>17</v>
+      </c>
+      <c r="D127" s="39"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="37"/>
+      <c r="B128" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" s="40"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="42"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="36"/>
+      <c r="B130" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="17">
+        <v>1</v>
+      </c>
+      <c r="D130" s="43"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="36"/>
+      <c r="B131" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="17">
+        <v>0</v>
+      </c>
+      <c r="D131" s="43"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="36"/>
+      <c r="B132" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="17">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D132" s="43"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="36"/>
+      <c r="B133" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="17">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D133" s="43"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="36"/>
+      <c r="B134" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="17">
+        <v>0</v>
+      </c>
+      <c r="D134" s="43"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="36"/>
+      <c r="B135" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="17">
+        <v>0</v>
+      </c>
+      <c r="D135" s="43"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="36"/>
+      <c r="B136" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" s="17">
+        <v>0</v>
+      </c>
+      <c r="D136" s="43"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="36"/>
+      <c r="B137" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D137" s="43"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="36"/>
+      <c r="B138" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" s="17">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D138" s="43"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="36"/>
+      <c r="B139" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C139" s="17">
+        <v>0</v>
+      </c>
+      <c r="D139" s="43"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="36"/>
+      <c r="B140" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C140" s="17">
+        <v>0</v>
+      </c>
+      <c r="D140" s="43"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="36"/>
+      <c r="B141" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C141" s="17">
+        <v>0</v>
+      </c>
+      <c r="D141" s="43"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="36"/>
+      <c r="B142" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C142" s="17"/>
+      <c r="D142" s="43"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="41"/>
+      <c r="B143" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" s="27"/>
+      <c r="D143" s="44"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D144" s="45"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="36"/>
+      <c r="B145" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="17">
+        <v>1</v>
+      </c>
+      <c r="D145" s="46"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="36"/>
+      <c r="B146" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="46"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="36"/>
+      <c r="B147" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" s="17">
+        <v>0</v>
+      </c>
+      <c r="D147" s="46"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="36"/>
+      <c r="B148" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D148" s="46"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="36"/>
+      <c r="B149" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="17">
+        <v>0</v>
+      </c>
+      <c r="D149" s="46"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="36"/>
+      <c r="B150" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="17">
+        <v>0</v>
+      </c>
+      <c r="D150" s="46"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="36"/>
+      <c r="B151" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="17">
+        <v>0</v>
+      </c>
+      <c r="D151" s="46"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="36"/>
+      <c r="B152" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="17">
+        <v>0</v>
+      </c>
+      <c r="D152" s="46"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="36"/>
+      <c r="B153" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" s="46"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="36"/>
+      <c r="B154" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D154" s="46"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="36"/>
+      <c r="B155" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C155" s="17">
+        <v>0</v>
+      </c>
+      <c r="D155" s="46"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="36"/>
+      <c r="B156" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C156" s="17">
+        <v>0</v>
+      </c>
+      <c r="D156" s="46"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="36"/>
+      <c r="B157" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C157" s="17">
+        <v>0</v>
+      </c>
+      <c r="D157" s="46"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="36"/>
+      <c r="B158" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C158" s="17">
+        <v>0</v>
+      </c>
+      <c r="D158" s="46"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="36"/>
+      <c r="B159" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C159" s="17">
+        <v>0</v>
+      </c>
+      <c r="D159" s="46"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="36"/>
+      <c r="B160" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="17">
+        <v>0</v>
+      </c>
+      <c r="D160" s="46"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="36"/>
+      <c r="B161" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" s="17">
+        <v>0</v>
+      </c>
+      <c r="D161" s="46"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="36"/>
+      <c r="B162" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="17">
+        <v>0</v>
+      </c>
+      <c r="D162" s="46"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="36"/>
+      <c r="B163" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C163" s="17">
+        <v>0</v>
+      </c>
+      <c r="D163" s="46"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="36"/>
+      <c r="B164" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" s="17">
+        <v>0</v>
+      </c>
+      <c r="D164" s="46"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="36"/>
+      <c r="B165" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D165" s="46"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="36"/>
+      <c r="B166" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166" s="46"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="41"/>
+      <c r="B167" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D167" s="46"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D168" s="34"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="30"/>
+      <c r="B169" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D169" s="34"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="30"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="34"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="30"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="34"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="30"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="34"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="30"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="34"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="30"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="34"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="30"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="34"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="30"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="34"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D177" s="30"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="30"/>
+      <c r="B178" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D178" s="30"/>
+    </row>
+    <row r="179" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="30"/>
+      <c r="B179" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179" s="30"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="30"/>
+      <c r="B180" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D180" s="30"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="30"/>
+      <c r="B181" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D181" s="30"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="30"/>
+      <c r="B182" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D182" s="30"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="30"/>
+      <c r="B183" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C183" s="16">
+        <v>10</v>
+      </c>
+      <c r="D183" s="30"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D184" s="34"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="30"/>
+      <c r="B185" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D185" s="34"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C186" s="17">
+        <v>794</v>
+      </c>
+      <c r="D186" s="34"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="30"/>
+      <c r="B187" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C187" s="17">
+        <v>576</v>
+      </c>
+      <c r="D187" s="34"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="30"/>
+      <c r="B188" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C188" s="17">
+        <v>1</v>
+      </c>
+      <c r="D188" s="34"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="30"/>
+      <c r="B189" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C189" s="17">
+        <v>10</v>
+      </c>
+      <c r="D189" s="34"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="30"/>
+      <c r="B190" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C190" s="17">
+        <v>1</v>
+      </c>
+      <c r="D190" s="34"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="30"/>
+      <c r="B191" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C191" s="17">
+        <v>1</v>
+      </c>
+      <c r="D191" s="34"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="30"/>
+      <c r="B192" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" s="17">
+        <v>1</v>
+      </c>
+      <c r="D192" s="34"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="30"/>
+      <c r="B193" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C193" s="17">
+        <v>1</v>
+      </c>
+      <c r="D193" s="34"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="30"/>
+      <c r="B194" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="17">
+        <v>1</v>
+      </c>
+      <c r="D194" s="34"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="30"/>
+      <c r="B195" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C195" s="17">
+        <v>1</v>
+      </c>
+      <c r="D195" s="34"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="30"/>
+      <c r="B196" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C196" s="17">
+        <v>1</v>
+      </c>
+      <c r="D196" s="34"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="30"/>
+      <c r="B197" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C197" s="17">
+        <v>850</v>
+      </c>
+      <c r="D197" s="34"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="30"/>
+      <c r="B198" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C198" s="17">
+        <v>1100</v>
+      </c>
+      <c r="D198" s="34"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="30"/>
+      <c r="B199" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C199" s="17">
+        <v>0</v>
+      </c>
+      <c r="D199" s="34"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="30"/>
+      <c r="B200" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="17">
+        <v>0</v>
+      </c>
+      <c r="D200" s="34"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="28"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" s="17">
+        <v>1</v>
+      </c>
+      <c r="D202" s="34"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="30"/>
+      <c r="B203" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="17">
+        <v>0</v>
+      </c>
+      <c r="D203" s="34"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D204" s="30"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="30"/>
+      <c r="B205" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D205" s="30"/>
+    </row>
+    <row r="206" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="30"/>
+      <c r="B206" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D206" s="30"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="30"/>
+      <c r="B207" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1</v>
+      </c>
+      <c r="D207" s="30"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="30"/>
+      <c r="B208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" s="17">
+        <v>1</v>
+      </c>
+      <c r="D208" s="30"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="30"/>
+      <c r="B209" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C209" s="17">
+        <v>1</v>
+      </c>
+      <c r="D209" s="30"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C210" s="17">
+        <v>50</v>
+      </c>
+      <c r="D210" s="31"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="30"/>
+      <c r="B211" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" s="17">
+        <v>50</v>
+      </c>
+      <c r="D211" s="32"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="30"/>
+      <c r="B212" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C212" s="17">
+        <v>1</v>
+      </c>
+      <c r="D212" s="32"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="30"/>
+      <c r="B213" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="33"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C214" s="17">
+        <v>-42</v>
+      </c>
+      <c r="D214" s="31"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="30"/>
+      <c r="B215" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C215" s="17">
+        <v>-34</v>
+      </c>
+      <c r="D215" s="32"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="30"/>
+      <c r="B216" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D216" s="33"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D217" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="D30:D40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="D17:D29"/>
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="D41:D54"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="D55:D66"/>
+    <mergeCell ref="A67:A81"/>
+    <mergeCell ref="D67:D81"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="D91:D103"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="D104:D113"/>
+    <mergeCell ref="A114:A128"/>
+    <mergeCell ref="D114:D128"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="D129:D143"/>
+    <mergeCell ref="A144:A167"/>
+    <mergeCell ref="D144:D167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="D177:D183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="A186:A200"/>
+    <mergeCell ref="D186:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A204:A209"/>
+    <mergeCell ref="D204:D209"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AACCA3-AE62-4022-A9EC-680B77E97704}">
   <dimension ref="A1:H149"/>
   <sheetViews>
@@ -2123,18 +5487,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -2163,7 +5527,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2172,8 +5536,8 @@
       <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -2182,388 +5546,388 @@
       <c r="G3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="15"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="33"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="16">
         <v>17</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="16">
         <v>150</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="16">
         <v>50</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="16">
         <v>320</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="16">
         <v>190</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -2572,8 +5936,8 @@
       <c r="C26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -2582,384 +5946,384 @@
       <c r="G26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="15"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="33"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="15"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="33"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="15" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="33"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="15"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="15"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="16">
         <v>17</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="33"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="16">
         <v>4</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="16">
         <v>-3</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="33"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="33"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="33"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="16"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="15"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="33"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="16">
         <v>150</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="33"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="16">
         <v>50</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="33"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="16">
         <v>320</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="16">
         <v>190</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="34"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2968,8 +6332,8 @@
       <c r="C49" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="29" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="12" t="s">
@@ -2981,15 +6345,15 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="30"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="15" t="s">
         <v>41</v>
       </c>
@@ -2999,53 +6363,53 @@
       <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="16">
         <v>1</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="30"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="15"/>
       <c r="G51" s="17"/>
       <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="16">
         <v>1</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="30"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="15"/>
       <c r="G52" s="17"/>
       <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="30"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
       <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="30"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="15" t="s">
         <v>79</v>
       </c>
@@ -3055,15 +6419,15 @@
       <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="30"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="15" t="s">
         <v>59</v>
       </c>
@@ -3073,57 +6437,57 @@
       <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="30"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="15"/>
       <c r="G56" s="17"/>
       <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="16">
         <v>1</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="30"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="15"/>
       <c r="G57" s="17"/>
       <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="30"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="15"/>
       <c r="G58" s="17"/>
       <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C59" s="16">
         <v>4</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="30"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="58"/>
       <c r="F59" s="15" t="s">
         <v>101</v>
       </c>
@@ -3133,15 +6497,15 @@
       <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="16">
         <v>17</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="30"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="15" t="s">
         <v>69</v>
       </c>
@@ -3151,15 +6515,15 @@
       <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="30"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="15" t="s">
         <v>62</v>
       </c>
@@ -3169,15 +6533,15 @@
       <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="30"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="15" t="s">
         <v>76</v>
       </c>
@@ -3187,15 +6551,15 @@
       <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="30"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="58"/>
       <c r="F63" s="15" t="s">
         <v>55</v>
       </c>
@@ -3205,29 +6569,29 @@
       <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="16">
         <v>0</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="30"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="58"/>
       <c r="F64" s="15"/>
       <c r="G64" s="17"/>
       <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="16">
         <v>15</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="30"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="15" t="s">
         <v>83</v>
       </c>
@@ -3237,15 +6601,15 @@
       <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C66" s="16">
         <v>15</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="30"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="15" t="s">
         <v>85</v>
       </c>
@@ -3255,15 +6619,15 @@
       <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="16">
         <v>320</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="30"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="15" t="s">
         <v>88</v>
       </c>
@@ -3273,15 +6637,15 @@
       <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="16">
         <v>190</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="30"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="15" t="s">
         <v>91</v>
       </c>
@@ -3291,15 +6655,15 @@
       <c r="H68" s="39"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="28"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="31"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="59"/>
       <c r="F69" s="19" t="s">
         <v>95</v>
       </c>
@@ -3309,7 +6673,7 @@
       <c r="H69" s="40"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -3318,8 +6682,8 @@
       <c r="C70" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="29" t="s">
+      <c r="D70" s="60"/>
+      <c r="E70" s="57" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3331,15 +6695,15 @@
       <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="30"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="15" t="s">
         <v>41</v>
       </c>
@@ -3349,43 +6713,43 @@
       <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="16">
         <v>1</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="30"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="15"/>
       <c r="G72" s="17"/>
       <c r="H72" s="39"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C73" s="16">
         <v>1</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="30"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="58"/>
       <c r="F73" s="15"/>
       <c r="G73" s="17"/>
       <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C74" s="16">
         <v>1</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="30"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="15" t="s">
         <v>46</v>
       </c>
@@ -3395,29 +6759,29 @@
       <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="16">
         <v>0</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="30"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="15"/>
       <c r="G75" s="17"/>
       <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="16">
         <v>0</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="30"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="15" t="s">
         <v>51</v>
       </c>
@@ -3427,43 +6791,43 @@
       <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="30"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
       <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C78" s="16">
         <v>1</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="30"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="15"/>
       <c r="G78" s="17"/>
       <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="30"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="58"/>
       <c r="F79" s="15" t="s">
         <v>59</v>
       </c>
@@ -3473,15 +6837,15 @@
       <c r="H79" s="39"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="30"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="15" t="s">
         <v>79</v>
       </c>
@@ -3491,15 +6855,15 @@
       <c r="H80" s="39"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="27"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="30"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="58"/>
       <c r="F81" s="15" t="s">
         <v>55</v>
       </c>
@@ -3509,41 +6873,41 @@
       <c r="H81" s="39"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="30"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="15"/>
       <c r="G82" s="17"/>
       <c r="H82" s="39"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C83" s="16"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="30"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="15"/>
       <c r="G83" s="17"/>
       <c r="H83" s="39"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="30"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="15" t="s">
         <v>62</v>
       </c>
@@ -3553,15 +6917,15 @@
       <c r="H84" s="39"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="16">
         <v>17</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="30"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="15" t="s">
         <v>69</v>
       </c>
@@ -3571,15 +6935,15 @@
       <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="30"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="58"/>
       <c r="F86" s="15" t="s">
         <v>76</v>
       </c>
@@ -3589,15 +6953,15 @@
       <c r="H86" s="39"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="16">
         <v>3</v>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="30"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="15" t="s">
         <v>101</v>
       </c>
@@ -3607,15 +6971,15 @@
       <c r="H87" s="39"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="16">
         <v>320</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="30"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="58"/>
       <c r="F88" s="15" t="s">
         <v>88</v>
       </c>
@@ -3625,15 +6989,15 @@
       <c r="H88" s="39"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="16">
         <v>220</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="30"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="58"/>
       <c r="F89" s="15" t="s">
         <v>91</v>
       </c>
@@ -3643,15 +7007,15 @@
       <c r="H89" s="39"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C90" s="16">
         <v>150</v>
       </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="30"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="58"/>
       <c r="F90" s="15" t="s">
         <v>83</v>
       </c>
@@ -3661,15 +7025,15 @@
       <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C91" s="16">
         <v>30</v>
       </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="30"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="58"/>
       <c r="F91" s="15" t="s">
         <v>85</v>
       </c>
@@ -3679,15 +7043,15 @@
       <c r="H91" s="39"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="28"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="31"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="59"/>
       <c r="F92" s="19" t="s">
         <v>95</v>
       </c>
@@ -3697,7 +7061,7 @@
       <c r="H92" s="40"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -3706,8 +7070,8 @@
       <c r="C93" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="35"/>
-      <c r="E93" s="29" t="s">
+      <c r="D93" s="60"/>
+      <c r="E93" s="57" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="12" t="s">
@@ -3719,15 +7083,15 @@
       <c r="H93" s="38"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="30"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="58"/>
       <c r="F94" s="15" t="s">
         <v>41</v>
       </c>
@@ -3737,43 +7101,43 @@
       <c r="H94" s="39"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C95" s="16">
         <v>1</v>
       </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="30"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="58"/>
       <c r="F95" s="15"/>
       <c r="G95" s="17"/>
       <c r="H95" s="39"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C96" s="16">
         <v>1</v>
       </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="30"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="58"/>
       <c r="F96" s="15"/>
       <c r="G96" s="17"/>
       <c r="H96" s="39"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C97" s="16">
         <v>1</v>
       </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="30"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="58"/>
       <c r="F97" s="15" t="s">
         <v>46</v>
       </c>
@@ -3783,29 +7147,29 @@
       <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="16">
         <v>0</v>
       </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="30"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="58"/>
       <c r="F98" s="15"/>
       <c r="G98" s="17"/>
       <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C99" s="16">
         <v>0</v>
       </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="30"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="15" t="s">
         <v>51</v>
       </c>
@@ -3815,43 +7179,43 @@
       <c r="H99" s="39"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="30"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="58"/>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
       <c r="H100" s="39"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="16">
         <v>1</v>
       </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="30"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="58"/>
       <c r="F101" s="15"/>
       <c r="G101" s="17"/>
       <c r="H101" s="39"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="27"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="30"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="58"/>
       <c r="F102" s="15" t="s">
         <v>59</v>
       </c>
@@ -3861,15 +7225,15 @@
       <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="30"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="58"/>
       <c r="F103" s="15" t="s">
         <v>79</v>
       </c>
@@ -3879,15 +7243,15 @@
       <c r="H103" s="39"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="30"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="58"/>
       <c r="F104" s="15" t="s">
         <v>55</v>
       </c>
@@ -3897,43 +7261,43 @@
       <c r="H104" s="39"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="27"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="30"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="15"/>
       <c r="G105" s="17"/>
       <c r="H105" s="39"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="27"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="30"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="15"/>
       <c r="G106" s="17"/>
       <c r="H106" s="39"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="27"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="30"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="58"/>
       <c r="F107" s="15" t="s">
         <v>62</v>
       </c>
@@ -3943,15 +7307,15 @@
       <c r="H107" s="39"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="27"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="16">
         <v>17</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="30"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="15" t="s">
         <v>69</v>
       </c>
@@ -3961,15 +7325,15 @@
       <c r="H108" s="39"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="30"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="58"/>
       <c r="F109" s="15" t="s">
         <v>76</v>
       </c>
@@ -3979,15 +7343,15 @@
       <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="27"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C110" s="16">
         <v>4</v>
       </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="30"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="15" t="s">
         <v>101</v>
       </c>
@@ -3997,15 +7361,15 @@
       <c r="H110" s="39"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C111" s="16">
         <v>460</v>
       </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="30"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="15" t="s">
         <v>88</v>
       </c>
@@ -4015,15 +7379,15 @@
       <c r="H111" s="39"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C112" s="16">
         <v>278</v>
       </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="30"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="58"/>
       <c r="F112" s="15" t="s">
         <v>91</v>
       </c>
@@ -4033,15 +7397,15 @@
       <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C113" s="16">
         <v>15</v>
       </c>
-      <c r="D113" s="36"/>
-      <c r="E113" s="30"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="15" t="s">
         <v>83</v>
       </c>
@@ -4051,15 +7415,15 @@
       <c r="H113" s="39"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="27"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C114" s="16">
         <v>15</v>
       </c>
-      <c r="D114" s="36"/>
-      <c r="E114" s="30"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="15" t="s">
         <v>85</v>
       </c>
@@ -4069,15 +7433,15 @@
       <c r="H114" s="39"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="28"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="37"/>
-      <c r="E115" s="31"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="59"/>
       <c r="F115" s="19" t="s">
         <v>95</v>
       </c>
@@ -4087,7 +7451,7 @@
       <c r="H115" s="40"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="50" t="s">
         <v>125</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -4096,8 +7460,8 @@
       <c r="C116" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="35"/>
-      <c r="E116" s="29" t="s">
+      <c r="D116" s="60"/>
+      <c r="E116" s="57" t="s">
         <v>127</v>
       </c>
       <c r="F116" s="12" t="s">
@@ -4109,15 +7473,15 @@
       <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="27"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="36"/>
-      <c r="E117" s="30"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="58"/>
       <c r="F117" s="15" t="s">
         <v>41</v>
       </c>
@@ -4127,97 +7491,97 @@
       <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="27"/>
+      <c r="A118" s="51"/>
       <c r="B118" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C118" s="16">
         <v>1</v>
       </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="30"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="58"/>
       <c r="F118" s="15"/>
       <c r="G118" s="17"/>
       <c r="H118" s="39"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="27"/>
+      <c r="A119" s="51"/>
       <c r="B119" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C119" s="16">
         <v>1</v>
       </c>
-      <c r="D119" s="36"/>
-      <c r="E119" s="30"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="58"/>
       <c r="F119" s="15"/>
       <c r="G119" s="17"/>
       <c r="H119" s="39"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="51"/>
       <c r="B120" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="36"/>
-      <c r="E120" s="30"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="58"/>
       <c r="F120" s="15"/>
       <c r="G120" s="17"/>
       <c r="H120" s="39"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="30"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="58"/>
       <c r="F121" s="15"/>
       <c r="G121" s="17"/>
       <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="27"/>
+      <c r="A122" s="51"/>
       <c r="B122" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C122" s="16"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="30"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="58"/>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
       <c r="H122" s="39"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="27"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="16">
         <v>1</v>
       </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="30"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="58"/>
       <c r="F123" s="15"/>
       <c r="G123" s="17"/>
       <c r="H123" s="39"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="27"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D124" s="36"/>
-      <c r="E124" s="30"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="58"/>
       <c r="F124" s="15" t="s">
         <v>62</v>
       </c>
@@ -4227,15 +7591,15 @@
       <c r="H124" s="39"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="27"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C125" s="16">
         <v>17</v>
       </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="30"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="15" t="s">
         <v>69</v>
       </c>
@@ -4245,15 +7609,15 @@
       <c r="H125" s="39"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="27"/>
+      <c r="A126" s="51"/>
       <c r="B126" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="30"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="15" t="s">
         <v>76</v>
       </c>
@@ -4263,15 +7627,15 @@
       <c r="H126" s="39"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="27"/>
+      <c r="A127" s="51"/>
       <c r="B127" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C127" s="16">
         <v>190</v>
       </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="30"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="15" t="s">
         <v>88</v>
       </c>
@@ -4281,15 +7645,15 @@
       <c r="H127" s="39"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="27"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C128" s="16">
         <v>270</v>
       </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="30"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="58"/>
       <c r="F128" s="15" t="s">
         <v>91</v>
       </c>
@@ -4299,15 +7663,15 @@
       <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="27"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C129" s="16">
         <v>150</v>
       </c>
-      <c r="D129" s="36"/>
-      <c r="E129" s="30"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="58"/>
       <c r="F129" s="15" t="s">
         <v>83</v>
       </c>
@@ -4317,15 +7681,15 @@
       <c r="H129" s="39"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="27"/>
+      <c r="A130" s="51"/>
       <c r="B130" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C130" s="16">
         <v>30</v>
       </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="30"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="58"/>
       <c r="F130" s="15" t="s">
         <v>85</v>
       </c>
@@ -4335,15 +7699,15 @@
       <c r="H130" s="39"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="28"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="37"/>
-      <c r="E131" s="31"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="59"/>
       <c r="F131" s="19" t="s">
         <v>95</v>
       </c>
@@ -4353,7 +7717,7 @@
       <c r="H131" s="40"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="50" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="12" t="s">
@@ -4362,8 +7726,8 @@
       <c r="C132" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="35"/>
-      <c r="E132" s="29" t="s">
+      <c r="D132" s="60"/>
+      <c r="E132" s="57" t="s">
         <v>135</v>
       </c>
       <c r="F132" s="12" t="s">
@@ -4375,15 +7739,15 @@
       <c r="H132" s="38"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="27"/>
+      <c r="A133" s="51"/>
       <c r="B133" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D133" s="36"/>
-      <c r="E133" s="30"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="58"/>
       <c r="F133" s="15" t="s">
         <v>41</v>
       </c>
@@ -4393,71 +7757,71 @@
       <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
+      <c r="A134" s="51"/>
       <c r="B134" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="16">
         <v>1</v>
       </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="30"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="58"/>
       <c r="F134" s="15"/>
       <c r="G134" s="17"/>
       <c r="H134" s="39"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="27"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C135" s="16">
         <v>1</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="30"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="58"/>
       <c r="F135" s="15"/>
       <c r="G135" s="17"/>
       <c r="H135" s="39"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="27"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="30"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="58"/>
       <c r="F136" s="15"/>
       <c r="G136" s="17"/>
       <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="27"/>
+      <c r="A137" s="51"/>
       <c r="B137" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="30"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="58"/>
       <c r="F137" s="15"/>
       <c r="G137" s="17"/>
       <c r="H137" s="39"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="27"/>
+      <c r="A138" s="51"/>
       <c r="B138" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D138" s="36"/>
-      <c r="E138" s="30"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="58"/>
       <c r="F138" s="15" t="s">
         <v>55</v>
       </c>
@@ -4467,29 +7831,29 @@
       <c r="H138" s="39"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="27"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="16">
         <v>1</v>
       </c>
-      <c r="D139" s="36"/>
-      <c r="E139" s="30"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="58"/>
       <c r="F139" s="15"/>
       <c r="G139" s="17"/>
       <c r="H139" s="39"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="27"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D140" s="36"/>
-      <c r="E140" s="30"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="58"/>
       <c r="F140" s="15" t="s">
         <v>62</v>
       </c>
@@ -4499,15 +7863,15 @@
       <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="27"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C141" s="16">
         <v>17</v>
       </c>
-      <c r="D141" s="36"/>
-      <c r="E141" s="30"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="58"/>
       <c r="F141" s="15" t="s">
         <v>69</v>
       </c>
@@ -4517,15 +7881,15 @@
       <c r="H141" s="39"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="27"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D142" s="36"/>
-      <c r="E142" s="30"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="58"/>
       <c r="F142" s="15" t="s">
         <v>139</v>
       </c>
@@ -4535,15 +7899,15 @@
       <c r="H142" s="39"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="27"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D143" s="36"/>
-      <c r="E143" s="30"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="58"/>
       <c r="F143" s="15" t="s">
         <v>82</v>
       </c>
@@ -4553,15 +7917,15 @@
       <c r="H143" s="39"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="27"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="30"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="58"/>
       <c r="F144" s="15" t="s">
         <v>76</v>
       </c>
@@ -4571,15 +7935,15 @@
       <c r="H144" s="39"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="27"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C145" s="16">
         <v>540</v>
       </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="30"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="58"/>
       <c r="F145" s="15" t="s">
         <v>88</v>
       </c>
@@ -4589,15 +7953,15 @@
       <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="27"/>
+      <c r="A146" s="51"/>
       <c r="B146" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C146" s="16">
         <v>690</v>
       </c>
-      <c r="D146" s="36"/>
-      <c r="E146" s="30"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="58"/>
       <c r="F146" s="15" t="s">
         <v>91</v>
       </c>
@@ -4607,15 +7971,15 @@
       <c r="H146" s="39"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="27"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="16">
         <v>60</v>
       </c>
-      <c r="D147" s="36"/>
-      <c r="E147" s="30"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="58"/>
       <c r="F147" s="15" t="s">
         <v>83</v>
       </c>
@@ -4625,15 +7989,15 @@
       <c r="H147" s="39"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="27"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C148" s="16">
         <v>30</v>
       </c>
-      <c r="D148" s="36"/>
-      <c r="E148" s="30"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="58"/>
       <c r="F148" s="15" t="s">
         <v>85</v>
       </c>
@@ -4643,15 +8007,15 @@
       <c r="H148" s="39"/>
     </row>
     <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="28"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="37"/>
-      <c r="E149" s="31"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="59"/>
       <c r="F149" s="19" t="s">
         <v>95</v>
       </c>
@@ -4699,7 +8063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E98F7D-266B-4293-A1EC-60ED8E15C228}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4846,11 +8210,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
@@ -4884,116 +8248,116 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="87.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="66"/>
     </row>
     <row r="7" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="167.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="138.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
     </row>
     <row r="11" spans="1:3" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="62" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:3" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="62" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="62" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Transformation Rules.xlsx
+++ b/Transformation Rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmahm\Dropbox\RTU\T04\Thesis\Transformation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\uitocode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B44DB-7639-484E-983E-4DEE7F373FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549E4EB-F086-47C1-8030-962E4C82835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1507,21 +1507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,31 +1516,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1576,17 +1546,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,11 +1600,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2460,15 +2460,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>127136</xdr:colOff>
+      <xdr:colOff>86123</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>87710</xdr:rowOff>
+      <xdr:rowOff>91520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1684871</xdr:colOff>
+      <xdr:colOff>1641953</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>12110</xdr:rowOff>
+      <xdr:rowOff>15920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2491,8 +2491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10581776" y="6625670"/>
-          <a:ext cx="1555830" cy="471135"/>
+          <a:off x="10664476" y="6512491"/>
+          <a:ext cx="1555830" cy="462282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3220,7 +3220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58BD8E2-F007-4DDE-812D-F4DCBFC4F4B8}">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="86" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:D29"/>
     </sheetView>
   </sheetViews>
@@ -3244,12 +3244,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -3266,7 +3266,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -3275,138 +3275,138 @@
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="16">
         <v>17</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -3415,128 +3415,128 @@
       <c r="C17" s="14">
         <v>1</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="17">
         <v>17</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="17">
         <v>-3</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="54"/>
+      <c r="D29" s="35"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="30" t="s">
         <v>154</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -3545,110 +3545,110 @@
       <c r="C30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="43"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="17">
         <v>1</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="17">
         <v>4</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="17">
         <v>17</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="22">
         <v>0</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -3657,138 +3657,138 @@
       <c r="C41" s="14">
         <v>1</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="17">
         <v>0</v>
       </c>
-      <c r="D42" s="48"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
       </c>
-      <c r="D43" s="48"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="48"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="17">
         <v>1</v>
       </c>
-      <c r="D45" s="48"/>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="38"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="48"/>
+      <c r="D47" s="38"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="38"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="38"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="38"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="48"/>
+      <c r="D51" s="38"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="38"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="17">
         <v>17</v>
       </c>
-      <c r="D53" s="48"/>
+      <c r="D53" s="38"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="37"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="22">
         <v>3</v>
       </c>
-      <c r="D54" s="49"/>
+      <c r="D54" s="39"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -3797,118 +3797,118 @@
       <c r="C55" s="14">
         <v>1</v>
       </c>
-      <c r="D55" s="42"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="17">
         <v>0</v>
       </c>
-      <c r="D56" s="43"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
       </c>
-      <c r="D57" s="43"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="43"/>
+      <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
       </c>
-      <c r="D59" s="43"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="43"/>
+      <c r="D60" s="34"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="43"/>
+      <c r="D61" s="34"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="17"/>
-      <c r="D62" s="43"/>
+      <c r="D62" s="34"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="43"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="43"/>
+      <c r="D64" s="34"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="17">
         <v>17</v>
       </c>
-      <c r="D65" s="43"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="37"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="22">
         <v>3</v>
       </c>
-      <c r="D66" s="54"/>
+      <c r="D66" s="35"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -3917,240 +3917,240 @@
       <c r="C67" s="14">
         <v>1</v>
       </c>
-      <c r="D67" s="42"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
-      <c r="D68" s="43"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="36"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C69" s="17">
         <v>0</v>
       </c>
-      <c r="D69" s="43"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="34"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="36"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
       </c>
-      <c r="D71" s="43"/>
+      <c r="D71" s="34"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="36"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="34"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="36"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C73" s="17">
         <v>0</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="34"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="36"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="43"/>
+      <c r="D75" s="34"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="36"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="43"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="36"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="43"/>
+      <c r="D77" s="34"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="36"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C78" s="17">
         <v>4</v>
       </c>
-      <c r="D78" s="43"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="36"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="17">
         <v>17</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="34"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="43"/>
+      <c r="D80" s="34"/>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="37"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="54"/>
+      <c r="D81" s="35"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C82" s="14"/>
-      <c r="D82" s="47"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="36"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C83" s="17">
         <v>-5</v>
       </c>
-      <c r="D83" s="48"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="36"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="48"/>
+      <c r="D84" s="38"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="36"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="17">
         <v>1</v>
       </c>
-      <c r="D85" s="48"/>
+      <c r="D85" s="38"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="36"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="48"/>
+      <c r="D86" s="38"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="36"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C87" s="17">
         <v>12</v>
       </c>
-      <c r="D87" s="48"/>
+      <c r="D87" s="38"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="36"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="38"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D89" s="48"/>
+      <c r="D89" s="38"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="37"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="39"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="50" t="s">
+      <c r="A91" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B91" s="12" t="s">
@@ -4159,128 +4159,128 @@
       <c r="C91" s="14">
         <v>1</v>
       </c>
-      <c r="D91" s="45"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="51"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C92" s="17">
         <v>0</v>
       </c>
-      <c r="D92" s="46"/>
+      <c r="D92" s="44"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="51"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C93" s="17">
         <v>0</v>
       </c>
-      <c r="D93" s="46"/>
+      <c r="D93" s="44"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="51"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="46"/>
+      <c r="D94" s="44"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="51"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="17">
         <v>1</v>
       </c>
-      <c r="D95" s="46"/>
+      <c r="D95" s="44"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="51"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D96" s="46"/>
+      <c r="D96" s="44"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="51"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="46"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="51"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C98" s="17"/>
-      <c r="D98" s="46"/>
+      <c r="D98" s="44"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="51"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D99" s="46"/>
+      <c r="D99" s="44"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="51"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="46"/>
+      <c r="D100" s="44"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="51"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C101" s="17">
         <v>17</v>
       </c>
-      <c r="D101" s="46"/>
+      <c r="D101" s="44"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="51"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D102" s="46"/>
+      <c r="D102" s="44"/>
     </row>
     <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="52"/>
+      <c r="A103" s="42"/>
       <c r="B103" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C103" s="22">
         <v>3</v>
       </c>
-      <c r="D103" s="53"/>
+      <c r="D103" s="45"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B104" s="12" t="s">
@@ -4289,100 +4289,100 @@
       <c r="C104" s="14">
         <v>1</v>
       </c>
-      <c r="D104" s="47"/>
+      <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="17">
         <v>0</v>
       </c>
-      <c r="D105" s="48"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="36"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C106" s="17">
         <v>0</v>
       </c>
-      <c r="D106" s="48"/>
+      <c r="D106" s="38"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="36"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="48"/>
+      <c r="D107" s="38"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="36"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="17">
         <v>1</v>
       </c>
-      <c r="D108" s="48"/>
+      <c r="D108" s="38"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="36"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="48"/>
+      <c r="D109" s="38"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="36"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
       </c>
-      <c r="D110" s="48"/>
+      <c r="D110" s="38"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="48"/>
+      <c r="D111" s="38"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D112" s="48"/>
+      <c r="D112" s="38"/>
     </row>
     <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="37"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="19" t="s">
         <v>164</v>
       </c>
       <c r="C113" s="22">
         <v>0</v>
       </c>
-      <c r="D113" s="49"/>
+      <c r="D113" s="39"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B114" s="12" t="s">
@@ -4391,148 +4391,148 @@
       <c r="C114" s="13">
         <v>1</v>
       </c>
-      <c r="D114" s="38"/>
+      <c r="D114" s="46"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C115" s="16">
         <v>0</v>
       </c>
-      <c r="D115" s="39"/>
+      <c r="D115" s="47"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C116" s="16">
         <v>0</v>
       </c>
-      <c r="D116" s="39"/>
+      <c r="D116" s="47"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="39"/>
+      <c r="D117" s="47"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="16">
         <v>1</v>
       </c>
-      <c r="D118" s="39"/>
+      <c r="D118" s="47"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D119" s="39"/>
+      <c r="D119" s="47"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D120" s="39"/>
+      <c r="D120" s="47"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="39"/>
+      <c r="D121" s="47"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C122" s="16">
         <v>8</v>
       </c>
-      <c r="D122" s="39"/>
+      <c r="D122" s="47"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="36"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="47"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="36"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="39"/>
+      <c r="D124" s="47"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="36"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D125" s="39"/>
+      <c r="D125" s="47"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="36"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C126" s="16"/>
-      <c r="D126" s="39"/>
+      <c r="D126" s="47"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="36"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C127" s="16">
         <v>17</v>
       </c>
-      <c r="D127" s="39"/>
+      <c r="D127" s="47"/>
     </row>
     <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="37"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="19" t="s">
         <v>169</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D128" s="40"/>
+      <c r="D128" s="48"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -4541,146 +4541,146 @@
       <c r="C129" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="42"/>
+      <c r="D129" s="33"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="36"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="17">
         <v>1</v>
       </c>
-      <c r="D130" s="43"/>
+      <c r="D130" s="34"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="36"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
       </c>
-      <c r="D131" s="43"/>
+      <c r="D131" s="34"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="36"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C132" s="17">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D132" s="43"/>
+      <c r="D132" s="34"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="36"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C133" s="17">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D133" s="43"/>
+      <c r="D133" s="34"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C134" s="17">
         <v>0</v>
       </c>
-      <c r="D134" s="43"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
       </c>
-      <c r="D135" s="43"/>
+      <c r="D135" s="34"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="36"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C136" s="17">
         <v>0</v>
       </c>
-      <c r="D136" s="43"/>
+      <c r="D136" s="34"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="36"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C137" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D137" s="43"/>
+      <c r="D137" s="34"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="36"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="15" t="s">
         <v>180</v>
       </c>
       <c r="C138" s="17">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D138" s="43"/>
+      <c r="D138" s="34"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="36"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
       </c>
-      <c r="D139" s="43"/>
+      <c r="D139" s="34"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="36"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C140" s="17">
         <v>0</v>
       </c>
-      <c r="D140" s="43"/>
+      <c r="D140" s="34"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="36"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
-      <c r="D141" s="43"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="36"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C142" s="17"/>
-      <c r="D142" s="43"/>
+      <c r="D142" s="34"/>
     </row>
     <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="41"/>
+      <c r="A143" s="49"/>
       <c r="B143" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C143" s="27"/>
-      <c r="D143" s="44"/>
+      <c r="D143" s="50"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="35" t="s">
+      <c r="A144" s="30" t="s">
         <v>186</v>
       </c>
       <c r="B144" s="12" t="s">
@@ -4689,240 +4689,240 @@
       <c r="C144" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D144" s="45"/>
+      <c r="D144" s="43"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="36"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="17">
         <v>1</v>
       </c>
-      <c r="D145" s="46"/>
+      <c r="D145" s="44"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="36"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D146" s="46"/>
+      <c r="D146" s="44"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="36"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="15" t="s">
         <v>188</v>
       </c>
       <c r="C147" s="17">
         <v>0</v>
       </c>
-      <c r="D147" s="46"/>
+      <c r="D147" s="44"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="36"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D148" s="46"/>
+      <c r="D148" s="44"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="36"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
-      <c r="D149" s="46"/>
+      <c r="D149" s="44"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="36"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C150" s="17">
         <v>0</v>
       </c>
-      <c r="D150" s="46"/>
+      <c r="D150" s="44"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="36"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="15" t="s">
         <v>189</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
       </c>
-      <c r="D151" s="46"/>
+      <c r="D151" s="44"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="36"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C152" s="17">
         <v>0</v>
       </c>
-      <c r="D152" s="46"/>
+      <c r="D152" s="44"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="36"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C153" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D153" s="46"/>
+      <c r="D153" s="44"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="36"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C154" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D154" s="46"/>
+      <c r="D154" s="44"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C155" s="17">
         <v>0</v>
       </c>
-      <c r="D155" s="46"/>
+      <c r="D155" s="44"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C156" s="17">
         <v>0</v>
       </c>
-      <c r="D156" s="46"/>
+      <c r="D156" s="44"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="36"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
       </c>
-      <c r="D157" s="46"/>
+      <c r="D157" s="44"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C158" s="17">
         <v>0</v>
       </c>
-      <c r="D158" s="46"/>
+      <c r="D158" s="44"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C159" s="17">
         <v>0</v>
       </c>
-      <c r="D159" s="46"/>
+      <c r="D159" s="44"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="36"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C160" s="17">
         <v>0</v>
       </c>
-      <c r="D160" s="46"/>
+      <c r="D160" s="44"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="36"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="15" t="s">
         <v>189</v>
       </c>
       <c r="C161" s="17">
         <v>0</v>
       </c>
-      <c r="D161" s="46"/>
+      <c r="D161" s="44"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="36"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C162" s="17">
         <v>0</v>
       </c>
-      <c r="D162" s="46"/>
+      <c r="D162" s="44"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="36"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C163" s="17">
         <v>0</v>
       </c>
-      <c r="D163" s="46"/>
+      <c r="D163" s="44"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C164" s="17">
         <v>0</v>
       </c>
-      <c r="D164" s="46"/>
+      <c r="D164" s="44"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D165" s="46"/>
+      <c r="D165" s="44"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="15" t="s">
         <v>199</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D166" s="46"/>
+      <c r="D166" s="44"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="41"/>
+      <c r="A167" s="49"/>
       <c r="B167" s="26" t="s">
         <v>201</v>
       </c>
       <c r="C167" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D167" s="46"/>
+      <c r="D167" s="44"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="51" t="s">
         <v>203</v>
       </c>
       <c r="B168" s="15" t="s">
@@ -4931,62 +4931,62 @@
       <c r="C168" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D168" s="34"/>
+      <c r="D168" s="52"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="30"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C169" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D169" s="34"/>
+      <c r="D169" s="52"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="30"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="15"/>
       <c r="C170" s="17"/>
-      <c r="D170" s="34"/>
+      <c r="D170" s="52"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="30"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="15"/>
       <c r="C171" s="17"/>
-      <c r="D171" s="34"/>
+      <c r="D171" s="52"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="30"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="15"/>
       <c r="C172" s="17"/>
-      <c r="D172" s="34"/>
+      <c r="D172" s="52"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="30"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="15"/>
       <c r="C173" s="17"/>
-      <c r="D173" s="34"/>
+      <c r="D173" s="52"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="30"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="15"/>
       <c r="C174" s="17"/>
-      <c r="D174" s="34"/>
+      <c r="D174" s="52"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="30"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="15"/>
       <c r="C175" s="17"/>
-      <c r="D175" s="34"/>
+      <c r="D175" s="52"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="30"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="15"/>
       <c r="C176" s="17"/>
-      <c r="D176" s="34"/>
+      <c r="D176" s="52"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="30" t="s">
+      <c r="A177" s="51" t="s">
         <v>207</v>
       </c>
       <c r="B177" s="15" t="s">
@@ -4995,70 +4995,70 @@
       <c r="C177" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D177" s="30"/>
+      <c r="D177" s="51"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="30"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="15" t="s">
         <v>210</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D178" s="30"/>
+      <c r="D178" s="51"/>
     </row>
     <row r="179" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="30"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D179" s="30"/>
+      <c r="D179" s="51"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="30"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="15" t="s">
         <v>214</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D180" s="30"/>
+      <c r="D180" s="51"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="30"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D181" s="30"/>
+      <c r="D181" s="51"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="30"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D182" s="30"/>
+      <c r="D182" s="51"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="30"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C183" s="16">
         <v>10</v>
       </c>
-      <c r="D183" s="30"/>
+      <c r="D183" s="51"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B184" s="15" t="s">
@@ -5067,20 +5067,20 @@
       <c r="C184" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="D184" s="34"/>
+      <c r="D184" s="52"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="30"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C185" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="D185" s="34"/>
+      <c r="D185" s="52"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="30" t="s">
+      <c r="A186" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B186" s="15" t="s">
@@ -5089,147 +5089,147 @@
       <c r="C186" s="17">
         <v>794</v>
       </c>
-      <c r="D186" s="34"/>
+      <c r="D186" s="52"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="30"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C187" s="17">
         <v>576</v>
       </c>
-      <c r="D187" s="34"/>
+      <c r="D187" s="52"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="30"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C188" s="17">
         <v>1</v>
       </c>
-      <c r="D188" s="34"/>
+      <c r="D188" s="52"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="30"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C189" s="17">
         <v>10</v>
       </c>
-      <c r="D189" s="34"/>
+      <c r="D189" s="52"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="30"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C190" s="17">
         <v>1</v>
       </c>
-      <c r="D190" s="34"/>
+      <c r="D190" s="52"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="30"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C191" s="17">
         <v>1</v>
       </c>
-      <c r="D191" s="34"/>
+      <c r="D191" s="52"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="30"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C192" s="17">
         <v>1</v>
       </c>
-      <c r="D192" s="34"/>
+      <c r="D192" s="52"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="30"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C193" s="17">
         <v>1</v>
       </c>
-      <c r="D193" s="34"/>
+      <c r="D193" s="52"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="30"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C194" s="17">
         <v>1</v>
       </c>
-      <c r="D194" s="34"/>
+      <c r="D194" s="52"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="30"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C195" s="17">
         <v>1</v>
       </c>
-      <c r="D195" s="34"/>
+      <c r="D195" s="52"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="30"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C196" s="17">
         <v>1</v>
       </c>
-      <c r="D196" s="34"/>
+      <c r="D196" s="52"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="30"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C197" s="17">
         <v>850</v>
       </c>
-      <c r="D197" s="34"/>
+      <c r="D197" s="52"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="30"/>
+      <c r="A198" s="51"/>
       <c r="B198" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C198" s="17">
         <v>1100</v>
       </c>
-      <c r="D198" s="34"/>
+      <c r="D198" s="52"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="30"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C199" s="17">
         <v>0</v>
       </c>
-      <c r="D199" s="34"/>
+      <c r="D199" s="52"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="30"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C200" s="17">
         <v>0</v>
       </c>
-      <c r="D200" s="34"/>
+      <c r="D200" s="52"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
@@ -5240,7 +5240,7 @@
       <c r="D201" s="28"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="30" t="s">
+      <c r="A202" s="51" t="s">
         <v>240</v>
       </c>
       <c r="B202" s="15" t="s">
@@ -5249,20 +5249,20 @@
       <c r="C202" s="17">
         <v>1</v>
       </c>
-      <c r="D202" s="34"/>
+      <c r="D202" s="52"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="30"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C203" s="17">
         <v>0</v>
       </c>
-      <c r="D203" s="34"/>
+      <c r="D203" s="52"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="30" t="s">
+      <c r="A204" s="51" t="s">
         <v>240</v>
       </c>
       <c r="B204" s="15" t="s">
@@ -5271,60 +5271,60 @@
       <c r="C204" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D204" s="30"/>
+      <c r="D204" s="51"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="30"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D205" s="30"/>
+      <c r="D205" s="51"/>
     </row>
     <row r="206" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="30"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D206" s="30"/>
+      <c r="D206" s="51"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="30"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C207" s="3">
         <v>1</v>
       </c>
-      <c r="D207" s="30"/>
+      <c r="D207" s="51"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="30"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C208" s="17">
         <v>1</v>
       </c>
-      <c r="D208" s="30"/>
+      <c r="D208" s="51"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="30"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C209" s="17">
         <v>1</v>
       </c>
-      <c r="D209" s="30"/>
+      <c r="D209" s="51"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="30" t="s">
+      <c r="A210" s="51" t="s">
         <v>244</v>
       </c>
       <c r="B210" s="15" t="s">
@@ -5333,40 +5333,40 @@
       <c r="C210" s="17">
         <v>50</v>
       </c>
-      <c r="D210" s="31"/>
+      <c r="D210" s="53"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="30"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C211" s="17">
         <v>50</v>
       </c>
-      <c r="D211" s="32"/>
+      <c r="D211" s="54"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="30"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="15" t="s">
         <v>245</v>
       </c>
       <c r="C212" s="17">
         <v>1</v>
       </c>
-      <c r="D212" s="32"/>
+      <c r="D212" s="54"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="30"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D213" s="33"/>
+      <c r="D213" s="55"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="30" t="s">
+      <c r="A214" s="51" t="s">
         <v>246</v>
       </c>
       <c r="B214" s="15" t="s">
@@ -5375,27 +5375,27 @@
       <c r="C214" s="17">
         <v>-42</v>
       </c>
-      <c r="D214" s="31"/>
+      <c r="D214" s="53"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="30"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C215" s="17">
         <v>-34</v>
       </c>
-      <c r="D215" s="32"/>
+      <c r="D215" s="54"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="30"/>
+      <c r="A216" s="51"/>
       <c r="B216" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D216" s="33"/>
+      <c r="D216" s="55"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
@@ -5411,37 +5411,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="D30:D40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="D3:D16"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="D17:D29"/>
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="D41:D54"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="D55:D66"/>
-    <mergeCell ref="A67:A81"/>
-    <mergeCell ref="D67:D81"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="D91:D103"/>
-    <mergeCell ref="A104:A113"/>
-    <mergeCell ref="D104:D113"/>
-    <mergeCell ref="A114:A128"/>
-    <mergeCell ref="D114:D128"/>
-    <mergeCell ref="A129:A143"/>
-    <mergeCell ref="D129:D143"/>
-    <mergeCell ref="A144:A167"/>
-    <mergeCell ref="D144:D167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="A177:A183"/>
-    <mergeCell ref="D177:D183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="D184:D185"/>
     <mergeCell ref="A210:A213"/>
     <mergeCell ref="D210:D213"/>
     <mergeCell ref="A214:A216"/>
@@ -5452,6 +5421,37 @@
     <mergeCell ref="D202:D203"/>
     <mergeCell ref="A204:A209"/>
     <mergeCell ref="D204:D209"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="D177:D183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A114:A128"/>
+    <mergeCell ref="D114:D128"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="D129:D143"/>
+    <mergeCell ref="A144:A167"/>
+    <mergeCell ref="D144:D167"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="D91:D103"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="D104:D113"/>
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="D41:D54"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="D55:D66"/>
+    <mergeCell ref="A67:A81"/>
+    <mergeCell ref="D67:D81"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="D30:D40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="D17:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5463,8 +5463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AACCA3-AE62-4022-A9EC-680B77E97704}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132:D149"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5487,18 +5487,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -5527,7 +5527,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -5536,8 +5536,8 @@
       <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -5546,388 +5546,388 @@
       <c r="G3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="15"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="15"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="46"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="16">
         <v>17</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="16">
         <v>150</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="16">
         <v>50</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="16">
         <v>320</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="16">
         <v>190</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -5936,8 +5936,8 @@
       <c r="C26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -5946,384 +5946,384 @@
       <c r="G26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="15"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="46"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="15"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="46"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="46"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="15" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="H31" s="46"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="46"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="15"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="46"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="15"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="46"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="46"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="16">
         <v>17</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="46"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
       <c r="F38" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="46"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="16">
         <v>4</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="46"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="16">
         <v>-3</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="46"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="46"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
       <c r="F42" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="46"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="16"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="15"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="46"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="16">
         <v>150</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="46"/>
+      <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="16">
         <v>50</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="46"/>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="16">
         <v>320</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="46"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="16">
         <v>190</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="46"/>
+      <c r="H47" s="44"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="53"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -6332,8 +6332,8 @@
       <c r="C49" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="57" t="s">
+      <c r="D49" s="56"/>
+      <c r="E49" s="58" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="12" t="s">
@@ -6342,338 +6342,338 @@
       <c r="G49" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="58"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="16">
         <v>1</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="58"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="15"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="39"/>
+      <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="16">
         <v>1</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="58"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="15"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="39"/>
+      <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="58"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="47"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="58"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="47"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="58"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="47"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="58"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="59"/>
       <c r="F56" s="15"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="47"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="16">
         <v>1</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="58"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="59"/>
       <c r="F57" s="15"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="58"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="15"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="47"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C59" s="16">
         <v>4</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="58"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="16">
         <v>17</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="58"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="59"/>
       <c r="F60" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="47"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="58"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="58"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="59"/>
       <c r="F62" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="47"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="58"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="59"/>
       <c r="F63" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G63" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="16">
         <v>0</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="58"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="59"/>
       <c r="F64" s="15"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="47"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="16">
         <v>15</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="58"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="59"/>
       <c r="F65" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G65" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="47"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C66" s="16">
         <v>15</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="58"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="59"/>
       <c r="F66" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="39"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="16">
         <v>320</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="58"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="59"/>
       <c r="F67" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="47"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="16">
         <v>190</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="58"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="59"/>
       <c r="F68" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="52"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="59"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H69" s="40"/>
+      <c r="H69" s="48"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -6682,8 +6682,8 @@
       <c r="C70" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="57" t="s">
+      <c r="D70" s="56"/>
+      <c r="E70" s="58" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -6692,376 +6692,376 @@
       <c r="G70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="38"/>
+      <c r="H70" s="46"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="58"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="59"/>
       <c r="F71" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="47"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="51"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="16">
         <v>1</v>
       </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="58"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="59"/>
       <c r="F72" s="15"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="39"/>
+      <c r="H72" s="47"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="51"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C73" s="16">
         <v>1</v>
       </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="58"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="15"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="51"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C74" s="16">
         <v>1</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="58"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="59"/>
       <c r="F74" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="47"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="51"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="16">
         <v>0</v>
       </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="58"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="59"/>
       <c r="F75" s="15"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="39"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="51"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="16">
         <v>0</v>
       </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="58"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="59"/>
       <c r="F76" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="47"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="51"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="58"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="59"/>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="39"/>
+      <c r="H77" s="47"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="51"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C78" s="16">
         <v>1</v>
       </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="58"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="59"/>
       <c r="F78" s="15"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="51"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="58"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="59"/>
       <c r="F79" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="47"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="51"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="58"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="59"/>
       <c r="F80" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="47"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="51"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="58"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="59"/>
       <c r="F81" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="47"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="51"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="58"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="59"/>
       <c r="F82" s="15"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="39"/>
+      <c r="H82" s="47"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="51"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C83" s="16"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="58"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="59"/>
       <c r="F83" s="15"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="39"/>
+      <c r="H83" s="47"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="51"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="58"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="59"/>
       <c r="F84" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="51"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="16">
         <v>17</v>
       </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="58"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="59"/>
       <c r="F85" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="58"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="59"/>
       <c r="F86" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="51"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="16">
         <v>3</v>
       </c>
-      <c r="D87" s="32"/>
-      <c r="E87" s="58"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="59"/>
       <c r="F87" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="47"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="51"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="16">
         <v>320</v>
       </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="58"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="59"/>
       <c r="F88" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="47"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="51"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="16">
         <v>220</v>
       </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="58"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="59"/>
       <c r="F89" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="47"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="51"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C90" s="16">
         <v>150</v>
       </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="58"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="59"/>
       <c r="F90" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="51"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C91" s="16">
         <v>30</v>
       </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="58"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="59"/>
       <c r="F91" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="47"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="52"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="61"/>
-      <c r="E92" s="59"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G92" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H92" s="40"/>
+      <c r="H92" s="48"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -7070,8 +7070,8 @@
       <c r="C93" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="57" t="s">
+      <c r="D93" s="56"/>
+      <c r="E93" s="58" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="12" t="s">
@@ -7080,378 +7080,378 @@
       <c r="G93" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H93" s="38"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="51"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="58"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="47"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="51"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C95" s="16">
         <v>1</v>
       </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="58"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="59"/>
       <c r="F95" s="15"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="39"/>
+      <c r="H95" s="47"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="51"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C96" s="16">
         <v>1</v>
       </c>
-      <c r="D96" s="32"/>
-      <c r="E96" s="58"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="59"/>
       <c r="F96" s="15"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="39"/>
+      <c r="H96" s="47"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="51"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C97" s="16">
         <v>1</v>
       </c>
-      <c r="D97" s="32"/>
-      <c r="E97" s="58"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="59"/>
       <c r="F97" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="51"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="16">
         <v>0</v>
       </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="58"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="59"/>
       <c r="F98" s="15"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="39"/>
+      <c r="H98" s="47"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="51"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C99" s="16">
         <v>0</v>
       </c>
-      <c r="D99" s="32"/>
-      <c r="E99" s="58"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="47"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="51"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="58"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="59"/>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="39"/>
+      <c r="H100" s="47"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="51"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="16">
         <v>1</v>
       </c>
-      <c r="D101" s="32"/>
-      <c r="E101" s="58"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="59"/>
       <c r="F101" s="15"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="39"/>
+      <c r="H101" s="47"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="51"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="32"/>
-      <c r="E102" s="58"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="59"/>
       <c r="F102" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="51"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="32"/>
-      <c r="E103" s="58"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="59"/>
       <c r="F103" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H103" s="39"/>
+      <c r="H103" s="47"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="51"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="32"/>
-      <c r="E104" s="58"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="59"/>
       <c r="F104" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="47"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="51"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D105" s="32"/>
-      <c r="E105" s="58"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="59"/>
       <c r="F105" s="15"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="39"/>
+      <c r="H105" s="47"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="51"/>
+      <c r="A106" s="41"/>
       <c r="B106" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="32"/>
-      <c r="E106" s="58"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="59"/>
       <c r="F106" s="15"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="39"/>
+      <c r="H106" s="47"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="51"/>
+      <c r="A107" s="41"/>
       <c r="B107" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="58"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="59"/>
       <c r="F107" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H107" s="39"/>
+      <c r="H107" s="47"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="51"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="16">
         <v>17</v>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="58"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="59"/>
       <c r="F108" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="47"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="51"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="32"/>
-      <c r="E109" s="58"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="59"/>
       <c r="F109" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="51"/>
+      <c r="A110" s="41"/>
       <c r="B110" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C110" s="16">
         <v>4</v>
       </c>
-      <c r="D110" s="32"/>
-      <c r="E110" s="58"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="59"/>
       <c r="F110" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="47"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="51"/>
+      <c r="A111" s="41"/>
       <c r="B111" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C111" s="16">
         <v>460</v>
       </c>
-      <c r="D111" s="32"/>
-      <c r="E111" s="58"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="59"/>
       <c r="F111" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="47"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="51"/>
+      <c r="A112" s="41"/>
       <c r="B112" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C112" s="16">
         <v>278</v>
       </c>
-      <c r="D112" s="32"/>
-      <c r="E112" s="58"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="59"/>
       <c r="F112" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G112" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H112" s="39"/>
+      <c r="H112" s="47"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="51"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C113" s="16">
         <v>15</v>
       </c>
-      <c r="D113" s="32"/>
-      <c r="E113" s="58"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="59"/>
       <c r="F113" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G113" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="47"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="51"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C114" s="16">
         <v>15</v>
       </c>
-      <c r="D114" s="32"/>
-      <c r="E114" s="58"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="59"/>
       <c r="F114" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="47"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="52"/>
+      <c r="A115" s="42"/>
       <c r="B115" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="61"/>
-      <c r="E115" s="59"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="60"/>
       <c r="F115" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G115" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H115" s="40"/>
+      <c r="H115" s="48"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="40" t="s">
         <v>125</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -7460,8 +7460,8 @@
       <c r="C116" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="60"/>
-      <c r="E116" s="57" t="s">
+      <c r="D116" s="56"/>
+      <c r="E116" s="58" t="s">
         <v>127</v>
       </c>
       <c r="F116" s="12" t="s">
@@ -7470,254 +7470,254 @@
       <c r="G116" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H116" s="38"/>
+      <c r="H116" s="46"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="51"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="32"/>
-      <c r="E117" s="58"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="59"/>
       <c r="F117" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G117" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="47"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="51"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C118" s="16">
         <v>1</v>
       </c>
-      <c r="D118" s="32"/>
-      <c r="E118" s="58"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="59"/>
       <c r="F118" s="15"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="39"/>
+      <c r="H118" s="47"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="51"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C119" s="16">
         <v>1</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="58"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="59"/>
       <c r="F119" s="15"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="39"/>
+      <c r="H119" s="47"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="51"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="32"/>
-      <c r="E120" s="58"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="59"/>
       <c r="F120" s="15"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="39"/>
+      <c r="H120" s="47"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="51"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D121" s="32"/>
-      <c r="E121" s="58"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="59"/>
       <c r="F121" s="15"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="51"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C122" s="16"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="58"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="59"/>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="39"/>
+      <c r="H122" s="47"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="51"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="16">
         <v>1</v>
       </c>
-      <c r="D123" s="32"/>
-      <c r="E123" s="58"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="59"/>
       <c r="F123" s="15"/>
       <c r="G123" s="17"/>
-      <c r="H123" s="39"/>
+      <c r="H123" s="47"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="51"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="58"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="59"/>
       <c r="F124" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="47"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="51"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C125" s="16">
         <v>17</v>
       </c>
-      <c r="D125" s="32"/>
-      <c r="E125" s="58"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="59"/>
       <c r="F125" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H125" s="39"/>
+      <c r="H125" s="47"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="51"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D126" s="32"/>
-      <c r="E126" s="58"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="59"/>
       <c r="F126" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H126" s="39"/>
+      <c r="H126" s="47"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="51"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C127" s="16">
         <v>190</v>
       </c>
-      <c r="D127" s="32"/>
-      <c r="E127" s="58"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="59"/>
       <c r="F127" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G127" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H127" s="39"/>
+      <c r="H127" s="47"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="51"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C128" s="16">
         <v>270</v>
       </c>
-      <c r="D128" s="32"/>
-      <c r="E128" s="58"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="59"/>
       <c r="F128" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G128" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H128" s="39"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="51"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C129" s="16">
         <v>150</v>
       </c>
-      <c r="D129" s="32"/>
-      <c r="E129" s="58"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="59"/>
       <c r="F129" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G129" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H129" s="39"/>
+      <c r="H129" s="47"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="51"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C130" s="16">
         <v>30</v>
       </c>
-      <c r="D130" s="32"/>
-      <c r="E130" s="58"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="59"/>
       <c r="F130" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G130" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="47"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="52"/>
+      <c r="A131" s="42"/>
       <c r="B131" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="61"/>
-      <c r="E131" s="59"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="60"/>
       <c r="F131" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G131" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H131" s="40"/>
+      <c r="H131" s="48"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="50" t="s">
+      <c r="A132" s="40" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="12" t="s">
@@ -7726,8 +7726,8 @@
       <c r="C132" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="60"/>
-      <c r="E132" s="57" t="s">
+      <c r="D132" s="56"/>
+      <c r="E132" s="58" t="s">
         <v>135</v>
       </c>
       <c r="F132" s="12" t="s">
@@ -7736,296 +7736,318 @@
       <c r="G132" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H132" s="38"/>
+      <c r="H132" s="46"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="51"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D133" s="32"/>
-      <c r="E133" s="58"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="59"/>
       <c r="F133" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G133" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="51"/>
+      <c r="A134" s="41"/>
       <c r="B134" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="16">
         <v>1</v>
       </c>
-      <c r="D134" s="32"/>
-      <c r="E134" s="58"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="59"/>
       <c r="F134" s="15"/>
       <c r="G134" s="17"/>
-      <c r="H134" s="39"/>
+      <c r="H134" s="47"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="51"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C135" s="16">
         <v>1</v>
       </c>
-      <c r="D135" s="32"/>
-      <c r="E135" s="58"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="59"/>
       <c r="F135" s="15"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="39"/>
+      <c r="H135" s="47"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="51"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D136" s="32"/>
-      <c r="E136" s="58"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="59"/>
       <c r="F136" s="15"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="39"/>
+      <c r="H136" s="47"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="51"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="32"/>
-      <c r="E137" s="58"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="59"/>
       <c r="F137" s="15"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="39"/>
+      <c r="H137" s="47"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="51"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D138" s="32"/>
-      <c r="E138" s="58"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="59"/>
       <c r="F138" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G138" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H138" s="39"/>
+      <c r="H138" s="47"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="51"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="16">
         <v>1</v>
       </c>
-      <c r="D139" s="32"/>
-      <c r="E139" s="58"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="59"/>
       <c r="F139" s="15"/>
       <c r="G139" s="17"/>
-      <c r="H139" s="39"/>
+      <c r="H139" s="47"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="51"/>
+      <c r="A140" s="41"/>
       <c r="B140" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D140" s="32"/>
-      <c r="E140" s="58"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="59"/>
       <c r="F140" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H140" s="39"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="51"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C141" s="16">
         <v>17</v>
       </c>
-      <c r="D141" s="32"/>
-      <c r="E141" s="58"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="59"/>
       <c r="F141" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G141" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="39"/>
+      <c r="H141" s="47"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="51"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D142" s="32"/>
-      <c r="E142" s="58"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="59"/>
       <c r="F142" s="15" t="s">
         <v>139</v>
       </c>
       <c r="G142" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H142" s="39"/>
+      <c r="H142" s="47"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="51"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="58"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="59"/>
       <c r="F143" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H143" s="39"/>
+      <c r="H143" s="47"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="51"/>
+      <c r="A144" s="41"/>
       <c r="B144" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D144" s="32"/>
-      <c r="E144" s="58"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="59"/>
       <c r="F144" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H144" s="39"/>
+      <c r="H144" s="47"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="51"/>
+      <c r="A145" s="41"/>
       <c r="B145" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C145" s="16">
         <v>540</v>
       </c>
-      <c r="D145" s="32"/>
-      <c r="E145" s="58"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="59"/>
       <c r="F145" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G145" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H145" s="39"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="51"/>
+      <c r="A146" s="41"/>
       <c r="B146" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C146" s="16">
         <v>690</v>
       </c>
-      <c r="D146" s="32"/>
-      <c r="E146" s="58"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="59"/>
       <c r="F146" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G146" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H146" s="39"/>
+      <c r="H146" s="47"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="51"/>
+      <c r="A147" s="41"/>
       <c r="B147" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="16">
         <v>60</v>
       </c>
-      <c r="D147" s="32"/>
-      <c r="E147" s="58"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="59"/>
       <c r="F147" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G147" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H147" s="39"/>
+      <c r="H147" s="47"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="51"/>
+      <c r="A148" s="41"/>
       <c r="B148" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C148" s="16">
         <v>30</v>
       </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="58"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="59"/>
       <c r="F148" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G148" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H148" s="39"/>
+      <c r="H148" s="47"/>
     </row>
     <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="52"/>
+      <c r="A149" s="42"/>
       <c r="B149" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="59"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="60"/>
       <c r="F149" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G149" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H149" s="40"/>
+      <c r="H149" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="D3:D25"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="H3:H25"/>
+    <mergeCell ref="A26:A48"/>
+    <mergeCell ref="D26:D48"/>
+    <mergeCell ref="E26:E48"/>
+    <mergeCell ref="H26:H48"/>
+    <mergeCell ref="A49:A69"/>
+    <mergeCell ref="D49:D69"/>
+    <mergeCell ref="E49:E69"/>
+    <mergeCell ref="H49:H69"/>
+    <mergeCell ref="A70:A92"/>
+    <mergeCell ref="D70:D92"/>
+    <mergeCell ref="E70:E92"/>
+    <mergeCell ref="H70:H92"/>
+    <mergeCell ref="A93:A115"/>
+    <mergeCell ref="D93:D115"/>
+    <mergeCell ref="E93:E115"/>
+    <mergeCell ref="H93:H115"/>
     <mergeCell ref="A116:A131"/>
     <mergeCell ref="D116:D131"/>
     <mergeCell ref="E116:E131"/>
@@ -8034,28 +8056,6 @@
     <mergeCell ref="D132:D149"/>
     <mergeCell ref="E132:E149"/>
     <mergeCell ref="H132:H149"/>
-    <mergeCell ref="A70:A92"/>
-    <mergeCell ref="D70:D92"/>
-    <mergeCell ref="E70:E92"/>
-    <mergeCell ref="H70:H92"/>
-    <mergeCell ref="A93:A115"/>
-    <mergeCell ref="D93:D115"/>
-    <mergeCell ref="E93:E115"/>
-    <mergeCell ref="H93:H115"/>
-    <mergeCell ref="A26:A48"/>
-    <mergeCell ref="D26:D48"/>
-    <mergeCell ref="E26:E48"/>
-    <mergeCell ref="H26:H48"/>
-    <mergeCell ref="A49:A69"/>
-    <mergeCell ref="D49:D69"/>
-    <mergeCell ref="E49:E69"/>
-    <mergeCell ref="H49:H69"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="D3:D25"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="H3:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8296,10 +8296,10 @@
       <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -8307,15 +8307,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="138.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="62"/>
     </row>
     <row r="11" spans="1:3" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="62" t="s">
@@ -8323,15 +8323,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:3" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="51" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -8339,15 +8339,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="62" t="s">
@@ -8355,12 +8355,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -8376,12 +8382,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
